--- a/arcGisTools.xlsx
+++ b/arcGisTools.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arue\Nextcloud\Projects\GeoKur\Provenance\ProvIt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arue\Downloads\ProvIt-master_Lisa_2\ProvIt-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Tool</t>
   </si>
@@ -75,6 +75,270 @@
   </si>
   <si>
     <t>geoRepresentation tag only true for Input != Polygon</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://desktop.arcgis.com/en/arcmap/10.3/tools/analysis-toolbox/select.htm </t>
+  </si>
+  <si>
+    <t>cqSelection, irreversible, selection</t>
+  </si>
+  <si>
+    <t>Erase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://desktop.arcgis.com/en/arcmap/10.3/tools/analysis-toolbox/erase.htm </t>
+  </si>
+  <si>
+    <t>irreversible, geometry, allFeatures, deletion?</t>
+  </si>
+  <si>
+    <t>Intersect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://desktop.arcgis.com/en/arcmap/10.3/tools/coverage-toolbox/intersect.htm </t>
+  </si>
+  <si>
+    <t>irreversible, allFeatures, wildcard, geometry</t>
+  </si>
+  <si>
+    <t>join_attributues, feature_type</t>
+  </si>
+  <si>
+    <t>Dissolve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://desktop.arcgis.com/en/arcmap/10.3/tools/data-management-toolbox/dissolve.htm </t>
+  </si>
+  <si>
+    <t>addition, deletion, allFeatures, irreversible</t>
+  </si>
+  <si>
+    <t>dissolve_field, statistics_fields</t>
+  </si>
+  <si>
+    <t>Multipart to Singlepart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://desktop.arcgis.com/en/arcmap/10.3/tools/data-management-toolbox/multipart-to-singlepart.htm </t>
+  </si>
+  <si>
+    <t>addition, allFeatures, irreversible, geometry</t>
+  </si>
+  <si>
+    <t>Feature to Raster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://desktop.arcgis.com/en/arcmap/10.3/tools/conversion-toolbox/feature-to-raster.htm </t>
+  </si>
+  <si>
+    <t>geoRepresentation, geometry, allFeatures, irreversible</t>
+  </si>
+  <si>
+    <t>cell_size</t>
+  </si>
+  <si>
+    <t>Extract by Mask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://desktop.arcgis.com/en/arcmap/10.3/tools/spatial-analyst-toolbox/extract-by-mask.htm </t>
+  </si>
+  <si>
+    <t>allFeatures, deletion, geoRepresentation</t>
+  </si>
+  <si>
+    <t>Zonal Statistics as Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://desktop.arcgis.com/en/arcmap/10.3/tools/spatial-analyst-toolbox/zonal-statistics-as-table.htm </t>
+  </si>
+  <si>
+    <t>sensitive, addition, allFeatures</t>
+  </si>
+  <si>
+    <t>Join Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://desktop.arcgis.com/en/arcmap/10.3/tools/data-management-toolbox/join-field.htm </t>
+  </si>
+  <si>
+    <t>addition, wildcard, deletion, selection?</t>
+  </si>
+  <si>
+    <t>Selection, weil man kann ja auswählen, welche Attribute in die Join-Tabelle kommen</t>
+  </si>
+  <si>
+    <t>Calculate Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://desktop.arcgis.com/en/arcmap/10.3/tools/data-management-toolbox/calculate-field.htm </t>
+  </si>
+  <si>
+    <t>allFeatures</t>
+  </si>
+  <si>
+    <t>Euclidean Distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://desktop.arcgis.com/en/arcmap/10.3/tools/spatial-analyst-toolbox/euclidean-distance.htm </t>
+  </si>
+  <si>
+    <t>allFeatures, geoRepresentation</t>
+  </si>
+  <si>
+    <t>maximum_distance, cell_size, out_direction_raster</t>
+  </si>
+  <si>
+    <t>Reclassify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://desktop.arcgis.com/en/arcmap/10.3/tools/spatial-analyst-toolbox/reclassify.htm </t>
+  </si>
+  <si>
+    <t>parameterizable, allFeatures</t>
+  </si>
+  <si>
+    <t>remap, missing_values</t>
+  </si>
+  <si>
+    <t>Polygon to Raster</t>
+  </si>
+  <si>
+    <t>Cell Statistics</t>
+  </si>
+  <si>
+    <t>Point to Raster</t>
+  </si>
+  <si>
+    <t>Cost Distance</t>
+  </si>
+  <si>
+    <t>Cost Path</t>
+  </si>
+  <si>
+    <t>Raster to Polyline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://desktop.arcgis.com/en/arcmap/10.3/tools/conversion-toolbox/raster-to-polygon.htm </t>
+  </si>
+  <si>
+    <t>geoRepresentation, geometry</t>
+  </si>
+  <si>
+    <t>simplify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://desktop.arcgis.com/en/arcmap/10.3/tools/spatial-analyst-toolbox/cell-statistics.htm </t>
+  </si>
+  <si>
+    <t>sensitive, allFeatures, addition</t>
+  </si>
+  <si>
+    <t>statistics_type, ignore_nodata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://desktop.arcgis.com/en/arcmap/10.3/tools/conversion-toolbox/point-to-raster.htm </t>
+  </si>
+  <si>
+    <t>geoRepresentation, allFeatures, deletion?</t>
+  </si>
+  <si>
+    <t>cell_assignment, cellsize, priority_field</t>
+  </si>
+  <si>
+    <t>deletion, vielleicht gehen ja Features verloren durch den Prozess????</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://desktop.arcgis.com/en/arcmap/10.3/tools/spatial-analyst-toolbox/cost-distance.htm </t>
+  </si>
+  <si>
+    <t>allFeatures, sensitive, deletion</t>
+  </si>
+  <si>
+    <t>deletion, da Zellen mit keinen Werten nicht beachtet werden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://desktop.arcgis.com/en/arcmap/10.3/tools/spatial-analyst-toolbox/cost-path.htm  </t>
+  </si>
+  <si>
+    <t>allFeatures, sensitive</t>
+  </si>
+  <si>
+    <t>path_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://desktop.arcgis.com/en/arcmap/10.3/tools/conversion-toolbox/raster-to-polyline.htm </t>
+  </si>
+  <si>
+    <t>geoRepresentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simplify, raster_field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bei deletion bin ich mir unsicher </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web-Link ArcGIS Pro(englisch) </t>
+  </si>
+  <si>
+    <t>https://pro.arcgis.com/en/pro-app/tool-reference/analysis/select.htm</t>
+  </si>
+  <si>
+    <t>https://pro.arcgis.com/en/pro-app/tool-reference/analysis/erase.htm</t>
+  </si>
+  <si>
+    <t>https://pro.arcgis.com/de/pro-app/tool-reference/data-management/dissolve.htm</t>
+  </si>
+  <si>
+    <t>https://pro.arcgis.com/en/pro-app/tool-reference/data-management/multipart-to-singlepart.htm</t>
+  </si>
+  <si>
+    <t>https://pro.arcgis.com/de/pro-app/tool-reference/analysis/intersect.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pro.arcgis.com/de/pro-app/tool-reference/raster-analysis/convert-feature-to-raster.htm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pro.arcgis.com/de/pro-app/tool-reference/spatial-analyst/extract-by-mask.htm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pro.arcgis.com/de/pro-app/tool-reference/spatial-analyst/zonal-statistics-as-table.htm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pro.arcgis.com/de/pro-app/tool-reference/data-management/join-field.htm </t>
+  </si>
+  <si>
+    <t>https://pro.arcgis.com/de/pro-app/tool-reference/spatial-analyst/euclidean-distance.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pro.arcgis.com/de/pro-app/tool-reference/data-management/calculate-field.htm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pro.arcgis.com/de/pro-app/tool-reference/spatial-analyst/reclassify.htm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pro.arcgis.com/de/pro-app/tool-reference/conversion/polygon-to-raster.htm </t>
+  </si>
+  <si>
+    <t>https://pro.arcgis.com/en/pro-app/tool-reference/spatial-analyst/cell-statistics.htm</t>
+  </si>
+  <si>
+    <t>https://pro.arcgis.com/en/pro-app/tool-reference/conversion/point-to-raster.htm</t>
+  </si>
+  <si>
+    <t>Maximum Distance, Start Cost, Capacity</t>
+  </si>
+  <si>
+    <t>https://pro.arcgis.com/en/pro-app/help/data/imagery/cost-distance-global-function.htm</t>
+  </si>
+  <si>
+    <t>https://pro.arcgis.com/de/pro-app/tool-reference/spatial-analyst/cost-path.htm</t>
+  </si>
+  <si>
+    <t>https://pro.arcgis.com/de/pro-app/tool-reference/conversion/raster-to-polyline.htm</t>
   </si>
 </sst>
 </file>
@@ -184,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -203,6 +467,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -485,23 +755,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="3"/>
+    <col min="2" max="3" width="40.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -509,36 +779,364 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="B18" r:id="rId16"/>
+    <hyperlink ref="B19" r:id="rId17"/>
+    <hyperlink ref="B20" r:id="rId18"/>
+    <hyperlink ref="C3" r:id="rId19"/>
+    <hyperlink ref="C8" r:id="rId20"/>
+    <hyperlink ref="C9" r:id="rId21"/>
+    <hyperlink ref="C10" r:id="rId22"/>
+    <hyperlink ref="C11" r:id="rId23"/>
+    <hyperlink ref="C12" r:id="rId24"/>
+    <hyperlink ref="C14" r:id="rId25"/>
+    <hyperlink ref="C15" r:id="rId26"/>
+    <hyperlink ref="C2" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId28"/>
 </worksheet>
 </file>